--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Rspo3</t>
   </si>
   <si>
     <t>Lgr4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.50276421372385</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H2">
-        <v>4.50276421372385</v>
+        <v>0.010261</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0006787744882400219</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0006824388225951697</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57377230838468</v>
+        <v>1.574348666666667</v>
       </c>
       <c r="N2">
-        <v>1.57377230838468</v>
+        <v>4.723046</v>
       </c>
       <c r="O2">
-        <v>0.09435565729046659</v>
+        <v>0.0919647296207302</v>
       </c>
       <c r="P2">
-        <v>0.09435565729046659</v>
+        <v>0.107609035279699</v>
       </c>
       <c r="Q2">
-        <v>7.086325630744112</v>
+        <v>0.005384797222888888</v>
       </c>
       <c r="R2">
-        <v>7.086325630744112</v>
+        <v>0.048463175006</v>
       </c>
       <c r="S2">
-        <v>0.09435565729046659</v>
+        <v>6.242331228444312E-05</v>
       </c>
       <c r="T2">
-        <v>0.09435565729046659</v>
+        <v>7.343658333687984E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.50276421372385</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H3">
-        <v>4.50276421372385</v>
+        <v>0.010261</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0006787744882400219</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0006824388225951697</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.69619695323753</v>
+        <v>7.791016</v>
       </c>
       <c r="N3">
-        <v>7.69619695323753</v>
+        <v>23.373048</v>
       </c>
       <c r="O3">
-        <v>0.4614261658377789</v>
+        <v>0.4551080043963893</v>
       </c>
       <c r="P3">
-        <v>0.4614261658377789</v>
+        <v>0.532527345028208</v>
       </c>
       <c r="Q3">
-        <v>34.65416022280848</v>
+        <v>0.02664787172533333</v>
       </c>
       <c r="R3">
-        <v>34.65416022280848</v>
+        <v>0.239830845528</v>
       </c>
       <c r="S3">
-        <v>0.4614261658377789</v>
+        <v>0.0003089157027780968</v>
       </c>
       <c r="T3">
-        <v>0.4614261658377789</v>
+        <v>0.0003634173343407819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,619 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.003420333333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.010261</v>
+      </c>
+      <c r="I4">
+        <v>0.0006787744882400219</v>
+      </c>
+      <c r="J4">
+        <v>0.0006824388225951697</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.2873323333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.861997</v>
+      </c>
+      <c r="O4">
+        <v>0.01678436353126363</v>
+      </c>
+      <c r="P4">
+        <v>0.01963958546751285</v>
+      </c>
+      <c r="Q4">
+        <v>0.0009827723574444445</v>
+      </c>
+      <c r="R4">
+        <v>0.008844951217</v>
+      </c>
+      <c r="S4">
+        <v>1.139279776636796E-05</v>
+      </c>
+      <c r="T4">
+        <v>1.340281558270667E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.003420333333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.010261</v>
+      </c>
+      <c r="I5">
+        <v>0.0006787744882400219</v>
+      </c>
+      <c r="J5">
+        <v>0.0006824388225951697</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>7.4663515</v>
+      </c>
+      <c r="N5">
+        <v>14.932703</v>
+      </c>
+      <c r="O5">
+        <v>0.436142902451617</v>
+      </c>
+      <c r="P5">
+        <v>0.3402240342245802</v>
+      </c>
+      <c r="Q5">
+        <v>0.02553741091383333</v>
+      </c>
+      <c r="R5">
+        <v>0.153224465483</v>
+      </c>
+      <c r="S5">
+        <v>0.0002960426754111141</v>
+      </c>
+      <c r="T5">
+        <v>0.0002321820893348012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.954393</v>
+      </c>
+      <c r="H6">
+        <v>14.863179</v>
+      </c>
+      <c r="I6">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J6">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.574348666666667</v>
+      </c>
+      <c r="N6">
+        <v>4.723046</v>
+      </c>
+      <c r="O6">
+        <v>0.0919647296207302</v>
+      </c>
+      <c r="P6">
+        <v>0.107609035279699</v>
+      </c>
+      <c r="Q6">
+        <v>7.799942013692665</v>
+      </c>
+      <c r="R6">
+        <v>70.199478123234</v>
+      </c>
+      <c r="S6">
+        <v>0.09042090091185821</v>
+      </c>
+      <c r="T6">
+        <v>0.106373753365604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.954393</v>
+      </c>
+      <c r="H7">
+        <v>14.863179</v>
+      </c>
+      <c r="I7">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J7">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.791016</v>
+      </c>
+      <c r="N7">
+        <v>23.373048</v>
+      </c>
+      <c r="O7">
+        <v>0.4551080043963893</v>
+      </c>
+      <c r="P7">
+        <v>0.532527345028208</v>
+      </c>
+      <c r="Q7">
+        <v>38.599755133288</v>
+      </c>
+      <c r="R7">
+        <v>347.397796199592</v>
+      </c>
+      <c r="S7">
+        <v>0.4474680232240181</v>
+      </c>
+      <c r="T7">
+        <v>0.5264142765821936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.954393</v>
+      </c>
+      <c r="H8">
+        <v>14.863179</v>
+      </c>
+      <c r="I8">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J8">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2873323333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.861997</v>
+      </c>
+      <c r="O8">
+        <v>0.01678436353126363</v>
+      </c>
+      <c r="P8">
+        <v>0.01963958546751285</v>
+      </c>
+      <c r="Q8">
+        <v>1.423557300940333</v>
+      </c>
+      <c r="R8">
+        <v>12.812015708463</v>
+      </c>
+      <c r="S8">
+        <v>0.01650260135584516</v>
+      </c>
+      <c r="T8">
+        <v>0.01941413576744553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.954393</v>
+      </c>
+      <c r="H9">
+        <v>14.863179</v>
+      </c>
+      <c r="I9">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J9">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.4663515</v>
+      </c>
+      <c r="N9">
+        <v>14.932703</v>
+      </c>
+      <c r="O9">
+        <v>0.436142902451617</v>
+      </c>
+      <c r="P9">
+        <v>0.3402240342245802</v>
+      </c>
+      <c r="Q9">
+        <v>36.9912396071395</v>
+      </c>
+      <c r="R9">
+        <v>221.947437642837</v>
+      </c>
+      <c r="S9">
+        <v>0.428821291908614</v>
+      </c>
+      <c r="T9">
+        <v>0.3363184830306151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.50276421372385</v>
-      </c>
-      <c r="H4">
-        <v>4.50276421372385</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>7.40918229724981</v>
-      </c>
-      <c r="N4">
-        <v>7.40918229724981</v>
-      </c>
-      <c r="O4">
-        <v>0.4442181768717544</v>
-      </c>
-      <c r="P4">
-        <v>0.4442181768717544</v>
-      </c>
-      <c r="Q4">
-        <v>33.36180090101271</v>
-      </c>
-      <c r="R4">
-        <v>33.36180090101271</v>
-      </c>
-      <c r="S4">
-        <v>0.4442181768717544</v>
-      </c>
-      <c r="T4">
-        <v>0.4442181768717544</v>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.16234</v>
+      </c>
+      <c r="I10">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J10">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.574348666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.723046</v>
+      </c>
+      <c r="O10">
+        <v>0.0919647296207302</v>
+      </c>
+      <c r="P10">
+        <v>0.107609035279699</v>
+      </c>
+      <c r="Q10">
+        <v>0.1277898812733334</v>
+      </c>
+      <c r="R10">
+        <v>0.7667392876400001</v>
+      </c>
+      <c r="S10">
+        <v>0.00148140539658754</v>
+      </c>
+      <c r="T10">
+        <v>0.00116184533075812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.16234</v>
+      </c>
+      <c r="I11">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J11">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.791016</v>
+      </c>
+      <c r="N11">
+        <v>23.373048</v>
+      </c>
+      <c r="O11">
+        <v>0.4551080043963893</v>
+      </c>
+      <c r="P11">
+        <v>0.532527345028208</v>
+      </c>
+      <c r="Q11">
+        <v>0.6323967687200001</v>
+      </c>
+      <c r="R11">
+        <v>3.79438061232</v>
+      </c>
+      <c r="S11">
+        <v>0.007331065469593056</v>
+      </c>
+      <c r="T11">
+        <v>0.005749651111673574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.16234</v>
+      </c>
+      <c r="I12">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J12">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2873323333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.861997</v>
+      </c>
+      <c r="O12">
+        <v>0.01678436353126363</v>
+      </c>
+      <c r="P12">
+        <v>0.01963958546751285</v>
+      </c>
+      <c r="Q12">
+        <v>0.02332276549666667</v>
+      </c>
+      <c r="R12">
+        <v>0.13993659298</v>
+      </c>
+      <c r="S12">
+        <v>0.0002703693776521063</v>
+      </c>
+      <c r="T12">
+        <v>0.0002120468844846117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.16234</v>
+      </c>
+      <c r="I13">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J13">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.4663515</v>
+      </c>
+      <c r="N13">
+        <v>14.932703</v>
+      </c>
+      <c r="O13">
+        <v>0.436142902451617</v>
+      </c>
+      <c r="P13">
+        <v>0.3402240342245802</v>
+      </c>
+      <c r="Q13">
+        <v>0.6060437512550001</v>
+      </c>
+      <c r="R13">
+        <v>2.42417500502</v>
+      </c>
+      <c r="S13">
+        <v>0.007025567867591892</v>
+      </c>
+      <c r="T13">
+        <v>0.003673369104630312</v>
       </c>
     </row>
   </sheetData>
